--- a/medicine/Sexualité et sexologie/Laisse/Laisse.xlsx
+++ b/medicine/Sexualité et sexologie/Laisse/Laisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une laisse, plus rarement écrit lesse (forme ancienne), est une lanière destinée à être attachée au cou d'un animal afin de contrôler ses déplacements.
 Plus agréable pour ce dernier à porter qu'une chaîne et tenue lâche, elle peut servir à promener son animal de compagnie sans prendre le risque que celui-ci s'échappe. Il en existe différents modèles. Elle est choisie en fonction de la taille et de la corpulence de l'animal ainsi que de son comportement, mais également de l’environnement des balades. La laisse est aussi une étape de dressage pour les animaux.
@@ -513,13 +525,15 @@
           <t>Usage humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La laisse (ou un équivalent) est parfois utilisée pour les humains, dans des circonstances très variées. Elle est alors un instrument de soumission et généralement d'humiliation, mais elle est perçue de façon différente selon le contexte.
 Dans le cadre de l'esclavage, des humains ont ainsi été tenus en laisse de la même manière que d'autres animaux.
 Il existe aussi des systèmes de laisses pour enfants, dont l'usage est souvent critiqué.
 En revanche, la laisse peut aussi être un instrument dans le cadre de pratiques BDSM, où son port est donc consenti.
-Dans la fiction, Riad Sattouf a imaginé, pour son film Jacky au royaume des filles, une société où les hommes sont inférieurs aux femmes et où ils sont parfois tenus en laisse pour symboliser leur totale soumission[1].
+Dans la fiction, Riad Sattouf a imaginé, pour son film Jacky au royaume des filles, une société où les hommes sont inférieurs aux femmes et où ils sont parfois tenus en laisse pour symboliser leur totale soumission.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Type de laisse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Accouple triple
 Accouple double
